--- a/Quaternion, Dual Numbers, and Dual Quaternions/Computation costs.xlsx
+++ b/Quaternion, Dual Numbers, and Dual Quaternions/Computation costs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\Simple_Game_Engine_2\Quaternion, Dual Numbers, and Dual Quaternions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\My_Dual_Quaternion_Paper\Quaternion, Dual Numbers, and Dual Quaternions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20880" windowHeight="8610"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20880" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,16 +1054,75 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>4</v>
+      </c>
       <c r="P29">
         <v>8</v>
       </c>
       <c r="Q29" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f>SUM(G29:G35)</f>
+        <v>26</v>
+      </c>
+      <c r="I36">
+        <f>SUM(I30:I35)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
